--- a/data/trans_camb/P36B13_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P36B13_R-Dificultad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.369845463387768</v>
+        <v>-3.694519373446582</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.778278373017221</v>
+        <v>-3.692659161941084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.946534323122314</v>
+        <v>-3.236986380469865</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.708863140054557</v>
+        <v>5.896974209028865</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3510256370373024</v>
+        <v>0.5161217779051698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.642740278281172</v>
+        <v>1.476234408039186</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2166328236878625</v>
+        <v>-0.2368045790538926</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5095498478341461</v>
+        <v>-0.5025784069127246</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2768444888554474</v>
+        <v>-0.2920371726957726</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.425499742812707</v>
+        <v>0.4512403661336558</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.08207779359084146</v>
+        <v>0.09900541169381591</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1782964416501185</v>
+        <v>0.1562069424238229</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>-3.78271317056586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.969942981587815</v>
+        <v>-3.969942981587816</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.999666170294409</v>
+        <v>-7.20052117606313</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.686141488133289</v>
+        <v>-6.193456097186875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.707730062910462</v>
+        <v>-5.751264467624143</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.290406210580152</v>
+        <v>-1.212271477840878</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.557505864543698</v>
+        <v>-1.845381963239723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.277497220722062</v>
+        <v>-2.342182009624546</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>-0.4767407826206714</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4177792840609402</v>
+        <v>-0.4177792840609404</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5497565478915439</v>
+        <v>-0.5645905794168262</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.633502299333504</v>
+        <v>-0.6534180474879846</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5415571467339744</v>
+        <v>-0.5459975696092247</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1012518946631865</v>
+        <v>-0.1218993958469615</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2294383512422361</v>
+        <v>-0.2753306620179815</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2525115457810304</v>
+        <v>-0.2715151890694031</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>-6.585177580516924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.693156573870374</v>
+        <v>-5.693156573870373</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.749791133334941</v>
+        <v>-7.919406366459139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.291825587579845</v>
+        <v>-9.12290003690519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.668355827029734</v>
+        <v>-7.688032276566246</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.427506545779706</v>
+        <v>-2.040899085614079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.357786721182124</v>
+        <v>-4.290370642568038</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.758702718235452</v>
+        <v>-3.934632024121926</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>-0.6663873574246005</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.5239239276395848</v>
+        <v>-0.5239239276395847</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5820018647636744</v>
+        <v>-0.5833774393710199</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7857579932262807</v>
+        <v>-0.7791617086930186</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6298828566763733</v>
+        <v>-0.6405927651765128</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1348433032871017</v>
+        <v>-0.1820358120504368</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4979822726575087</v>
+        <v>-0.4914424853062275</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3832389329043306</v>
+        <v>-0.3924584692016049</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.28482121648742</v>
+        <v>-10.11645262857633</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.53161071506119</v>
+        <v>-6.730427565056628</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.571027287037506</v>
+        <v>-7.73169703132775</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.457089796468572</v>
+        <v>-3.726698189908254</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.267563854143418</v>
+        <v>-1.208748553546586</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.298832369795007</v>
+        <v>-3.073040510430384</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7615325945697151</v>
+        <v>-0.759550518740912</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7070709130464631</v>
+        <v>-0.7121716294262209</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6929038832681581</v>
+        <v>-0.7091031712193127</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3895093102785408</v>
+        <v>-0.3973990349630114</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1984307241830442</v>
+        <v>-0.1867269787848774</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4048337461054898</v>
+        <v>-0.3818252897745588</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>-4.953274637066022</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-3.905183863040423</v>
+        <v>-3.905183863040422</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.428460540894186</v>
+        <v>-4.428460540894185</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.474416091325811</v>
+        <v>-6.603801516021675</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.082485375039115</v>
+        <v>-4.967907566619284</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.359247204714046</v>
+        <v>-5.406872172155273</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-3.415588869224234</v>
+        <v>-3.436652052686818</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.855277292665023</v>
+        <v>-2.851764444016098</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.388379343694369</v>
+        <v>-3.458361322506266</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>-0.3975586035149484</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.502956277742963</v>
+        <v>-0.5029562777429629</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.4402858691112777</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.48983267481404</v>
+        <v>-0.4984113145990303</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5977186713032594</v>
+        <v>-0.5915082441183898</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5058064632082511</v>
+        <v>-0.5131373776181678</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2909475582053347</v>
+        <v>-0.2881295223824287</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3837426666801576</v>
+        <v>-0.3877027603317106</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3532426595080324</v>
+        <v>-0.3610735635962674</v>
       </c>
     </row>
     <row r="34">
